--- a/Versuche.xlsx
+++ b/Versuche.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t>Versuch</t>
   </si>
@@ -169,13 +169,40 @@
   </si>
   <si>
     <t>Nr. SoSe16</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>Grätzel-Zelle</t>
+  </si>
+  <si>
+    <t>Nervenleitung</t>
+  </si>
+  <si>
+    <t>Trägheitsmoment</t>
+  </si>
+  <si>
+    <t>neuer Versuch: bereit</t>
+  </si>
+  <si>
+    <t>alter Versuch: verschoben</t>
+  </si>
+  <si>
+    <t>alter Versuch: umbenannt</t>
+  </si>
+  <si>
+    <t>Pohl'scher Resonator</t>
+  </si>
+  <si>
+    <t>neuer Versuch: noch nicht bereit --&gt; noch alter Versuch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +225,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +278,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -463,11 +529,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -538,6 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,7 +667,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -900,20 +1003,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="22" t="s">
         <v>2</v>
       </c>
@@ -945,7 +1048,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11">
@@ -972,10 +1075,10 @@
       <c r="I3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="35"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1000,10 +1103,10 @@
       <c r="I4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="36"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1028,10 +1131,10 @@
       <c r="I5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1056,10 +1159,10 @@
       <c r="I6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="38"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1084,10 +1187,10 @@
       <c r="I7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="37"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1112,10 +1215,10 @@
       <c r="I8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1140,10 +1243,10 @@
       <c r="I9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1168,10 +1271,10 @@
       <c r="I10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1196,10 +1299,10 @@
       <c r="I11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -1224,10 +1327,10 @@
       <c r="I12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="15">
@@ -1257,7 +1360,7 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1287,7 +1390,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -1317,7 +1420,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1345,7 +1448,7 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -1375,7 +1478,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1403,7 +1506,7 @@
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -1428,12 +1531,12 @@
       <c r="I19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -1458,10 +1561,10 @@
       <c r="I20" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="34"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -1486,10 +1589,10 @@
       <c r="I21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="13">
         <v>20</v>
       </c>
@@ -1514,7 +1617,7 @@
       <c r="I22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -1548,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,272 +1662,358 @@
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
         <v>17</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="30">
         <v>1</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="42"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+      <c r="D2" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30">
         <v>18</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="30">
         <v>2</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="D3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
         <v>15</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="30">
         <v>3</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="D4" s="43"/>
+      <c r="E4" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
         <v>16</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="30">
         <v>4</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="D5" s="43"/>
+      <c r="E5" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <v>1</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="30">
         <v>5</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="D6" s="43"/>
+      <c r="E6" s="53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="30">
         <v>6</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="42"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="D7" s="43"/>
+      <c r="E7" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
         <v>3</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="30">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="42"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="D8" s="43"/>
+      <c r="E8" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
         <v>4</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="30">
         <v>8</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="D9" s="43"/>
+      <c r="E9" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
         <v>7</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="30">
         <v>9</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="D10" s="43"/>
+      <c r="E10" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
         <v>8</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="30">
         <v>10</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="42"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="D11" s="43"/>
+      <c r="E11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
         <v>9</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="30">
         <v>11</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="42"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="D12" s="43"/>
+      <c r="E12" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
         <v>10</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="30">
         <v>12</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="42"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
+      <c r="D13" s="43"/>
+      <c r="E13" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
         <v>11</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="30">
         <v>13</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="42"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
+      <c r="D14" s="43"/>
+      <c r="E14" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
         <v>12</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="30">
         <v>14</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="42"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
+      <c r="D15" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <v>13</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="30">
         <v>15</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="42"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
+      <c r="D16" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
         <v>14</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="30">
         <v>16</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="42"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
+      <c r="D17" s="43"/>
+      <c r="E17" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
         <v>19</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="30">
         <v>17</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="42"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="D18" s="43"/>
+      <c r="E18" s="45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
         <v>20</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="30">
         <v>18</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="42"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="42">
+      <c r="D19" s="43"/>
+      <c r="E19" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
         <v>5</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="30">
         <v>19</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="42"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+      <c r="D20" s="43"/>
+      <c r="E20" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
         <v>6</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="30">
         <v>20</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="42"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
   </sheetData>
   <sortState ref="A2:C21">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
